--- a/data/raw/PSP/PSP_NPD42_OH.xlsx
+++ b/data/raw/PSP/PSP_NPD42_OH.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ohagen\Documents\GitHub\course_DigitalCompetenceInTheBiologicalSciences\data\raw\PSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8EDC1D1-54D6-4D96-B081-E2ADC3DB2907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9488C2BB-F1EF-4DBE-BB0F-209DECA6398D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="318">
   <si>
     <t>X</t>
   </si>
@@ -996,6 +996,12 @@
   <si>
     <t>Height</t>
   </si>
+  <si>
+    <t>1O.4</t>
+  </si>
+  <si>
+    <t>Brossimium alicastrum (Ramon)</t>
+  </si>
 </sst>
 </file>
 
@@ -1632,7 +1638,7 @@
     <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1683,6 +1689,9 @@
     <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - 强调文字颜色 1" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -7203,7 +7212,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="T3:U8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0">
@@ -7631,7 +7640,7 @@
   <dimension ref="A1:N704"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8842,8 +8851,36 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="H55" s="22"/>
-      <c r="I55" s="22"/>
+      <c r="A55">
+        <v>1234</v>
+      </c>
+      <c r="B55" t="s">
+        <v>317</v>
+      </c>
+      <c r="C55" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="D55">
+        <v>1000</v>
+      </c>
+      <c r="E55" t="s">
+        <v>273</v>
+      </c>
+      <c r="F55" t="s">
+        <v>272</v>
+      </c>
+      <c r="G55" t="s">
+        <v>272</v>
+      </c>
+      <c r="H55" s="22">
+        <v>-88.336830000000006</v>
+      </c>
+      <c r="I55" s="22">
+        <v>18.03153</v>
+      </c>
+      <c r="J55">
+        <v>57.3</v>
+      </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H56" s="22"/>
@@ -8893,8 +8930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AI900"/>
   <sheetViews>
-    <sheetView topLeftCell="Q8" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9125,9 +9162,9 @@
         <f t="array" ref="AC9">INDEX($O$21:$O$900, MATCH(0, COUNTIF($AC$2:AC8, $O$21:$O$900), 0))</f>
         <v>#N/A</v>
       </c>
-      <c r="AG9" t="e">
+      <c r="AG9" t="str">
         <f t="array" ref="AG9">INDEX($P$21:$P$900, MATCH(0, COUNTIF($AG$2:AG8, $P$21:$P$900), 0))</f>
-        <v>#N/A</v>
+        <v>Brossimium alicastrum (Ramon)</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.35">
@@ -11792,58 +11829,58 @@
     <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52">
         <f>'PSP Data'!A55</f>
-        <v>0</v>
+        <v>1234</v>
       </c>
       <c r="B52" t="str">
         <f>IF('PSP Data'!B55=0,"",'PSP Data'!B55)</f>
-        <v/>
-      </c>
-      <c r="C52">
+        <v>Brossimium alicastrum (Ramon)</v>
+      </c>
+      <c r="C52" t="str">
         <f>'PSP Data'!C55</f>
-        <v>0</v>
-      </c>
-      <c r="D52">
+        <v>1O.4</v>
+      </c>
+      <c r="D52" t="str">
         <f>'PSP Data'!E55</f>
-        <v>0</v>
-      </c>
-      <c r="E52">
+        <v>n</v>
+      </c>
+      <c r="E52" t="str">
         <f>'PSP Data'!F55</f>
-        <v>0</v>
-      </c>
-      <c r="F52">
+        <v>y</v>
+      </c>
+      <c r="F52" t="str">
         <f>'PSP Data'!G55</f>
-        <v>0</v>
+        <v>y</v>
       </c>
       <c r="G52">
         <f>'PSP Data'!H55</f>
-        <v>0</v>
+        <v>-88.336830000000006</v>
       </c>
       <c r="H52">
         <f>'PSP Data'!I55</f>
-        <v>0</v>
+        <v>18.03153</v>
       </c>
       <c r="I52">
         <f>'PSP Data'!J55</f>
-        <v>0</v>
-      </c>
-      <c r="J52" s="23" t="e">
+        <v>57.3</v>
+      </c>
+      <c r="J52" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K52" s="23" t="e">
+        <v>1O.4</v>
+      </c>
+      <c r="K52" s="23" t="str">
         <f>IF(AND((A52&lt;'PSP Data'!$C$11),(A52&lt;&gt;0)),Analysis!C52,#N/A)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L52" t="e">
+        <v>1O.4</v>
+      </c>
+      <c r="L52" t="str">
         <f>IF(VLOOKUP(B52,Table1[],4)=0,"unknown", VLOOKUP(B52,Table1[],4))</f>
-        <v>#N/A</v>
+        <v>habitat</v>
       </c>
       <c r="M52">
         <v>1</v>
       </c>
-      <c r="N52" t="e">
+      <c r="N52" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="O52" t="str">
         <f t="shared" si="2"/>
@@ -11851,11 +11888,11 @@
       </c>
       <c r="P52" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="Q52" t="str">
+        <v>Brossimium alicastrum (Ramon)</v>
+      </c>
+      <c r="Q52" t="b">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.35">
@@ -70382,8 +70419,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K115"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
